--- a/data/pca/factorExposure/factorExposure_2012-12-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-12-11.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.0001651791510765674</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.00187504196344608</v>
+      </c>
+      <c r="C2">
+        <v>-0.03144203584740959</v>
+      </c>
+      <c r="D2">
+        <v>0.004072101940884977</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.0006713492942027842</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006361629041978028</v>
+      </c>
+      <c r="C4">
+        <v>-0.08408013063456433</v>
+      </c>
+      <c r="D4">
+        <v>0.07751867932160526</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0002876287981111742</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01426294886439927</v>
+      </c>
+      <c r="C6">
+        <v>-0.1141944437862356</v>
+      </c>
+      <c r="D6">
+        <v>0.03224759750822268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.00143940238089111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.00516910117221952</v>
+      </c>
+      <c r="C7">
+        <v>-0.05864051726841151</v>
+      </c>
+      <c r="D7">
+        <v>0.03066771791463916</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.0004698581132222855</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005691146454252899</v>
+      </c>
+      <c r="C8">
+        <v>-0.03725996441205389</v>
+      </c>
+      <c r="D8">
+        <v>0.04240755645708243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.003361841954771435</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004562415282736761</v>
+      </c>
+      <c r="C9">
+        <v>-0.07059601180989679</v>
+      </c>
+      <c r="D9">
+        <v>0.07234343633622695</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.002548043091994536</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005243929382372102</v>
+      </c>
+      <c r="C10">
+        <v>-0.05814357892438524</v>
+      </c>
+      <c r="D10">
+        <v>-0.1966627131142891</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.002178120281883458</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005840970659715882</v>
+      </c>
+      <c r="C11">
+        <v>-0.07969170441444193</v>
+      </c>
+      <c r="D11">
+        <v>0.05908344632628203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0006466887339671387</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004185942641538622</v>
+      </c>
+      <c r="C12">
+        <v>-0.06413363954080938</v>
+      </c>
+      <c r="D12">
+        <v>0.04573136878538642</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.002165406057373062</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.009062867340977334</v>
+      </c>
+      <c r="C13">
+        <v>-0.0685299882798396</v>
+      </c>
+      <c r="D13">
+        <v>0.05660911025992259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.0007215241445806382</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001530220203079892</v>
+      </c>
+      <c r="C14">
+        <v>-0.04506349388105275</v>
+      </c>
+      <c r="D14">
+        <v>0.004902503786051748</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.0007066831231499186</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.006110025906791917</v>
+      </c>
+      <c r="C15">
+        <v>-0.04213536402924117</v>
+      </c>
+      <c r="D15">
+        <v>0.02983833491546438</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.0005550640507541099</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005132232950006186</v>
+      </c>
+      <c r="C16">
+        <v>-0.06499392153363065</v>
+      </c>
+      <c r="D16">
+        <v>0.0486177354990921</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.0004040872253511273</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.009023349651189391</v>
+      </c>
+      <c r="C20">
+        <v>-0.0654064818268717</v>
+      </c>
+      <c r="D20">
+        <v>0.04340791480755195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.00596346987454211</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.01003911906013651</v>
+      </c>
+      <c r="C21">
+        <v>-0.0210124183811277</v>
+      </c>
+      <c r="D21">
+        <v>0.03879970893816035</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.016003238135559</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006667576321088517</v>
+      </c>
+      <c r="C22">
+        <v>-0.09367063882786625</v>
+      </c>
+      <c r="D22">
+        <v>0.1131705742561814</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01630217886268097</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.00648344075332245</v>
+      </c>
+      <c r="C23">
+        <v>-0.09448627062649413</v>
+      </c>
+      <c r="D23">
+        <v>0.1131876585771799</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.001016377411877003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005587940581413257</v>
+      </c>
+      <c r="C24">
+        <v>-0.07630643386180395</v>
+      </c>
+      <c r="D24">
+        <v>0.06300194080948937</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.003892359014270937</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.003110078692955586</v>
+      </c>
+      <c r="C25">
+        <v>-0.07850866508879947</v>
+      </c>
+      <c r="D25">
+        <v>0.06501330677400961</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.004047552403757213</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003742205539476091</v>
+      </c>
+      <c r="C26">
+        <v>-0.04140718603384219</v>
+      </c>
+      <c r="D26">
+        <v>0.02291950346545216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.004356486599219948</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.000978470034918985</v>
+      </c>
+      <c r="C28">
+        <v>-0.1069540203552075</v>
+      </c>
+      <c r="D28">
+        <v>-0.318895544008754</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001334904343875465</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003321114454695154</v>
+      </c>
+      <c r="C29">
+        <v>-0.05080477315817251</v>
+      </c>
+      <c r="D29">
+        <v>0.008331087649330075</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.002903880646725975</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009705292158765335</v>
+      </c>
+      <c r="C30">
+        <v>-0.1417045376194385</v>
+      </c>
+      <c r="D30">
+        <v>0.1020091371871811</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0009507370304272904</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006286792966844674</v>
+      </c>
+      <c r="C31">
+        <v>-0.04447826662438811</v>
+      </c>
+      <c r="D31">
+        <v>0.02848917131908174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.0005403022061668616</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004089250427772223</v>
+      </c>
+      <c r="C32">
+        <v>-0.03930548454380571</v>
+      </c>
+      <c r="D32">
+        <v>0.02279892081722083</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.002219332217021804</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008513346648206145</v>
+      </c>
+      <c r="C33">
+        <v>-0.086425647385749</v>
+      </c>
+      <c r="D33">
+        <v>0.06393140721905209</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.004166405057379969</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.004032941347087772</v>
+      </c>
+      <c r="C34">
+        <v>-0.05790227114807401</v>
+      </c>
+      <c r="D34">
+        <v>0.05365000468417733</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.001118751621780886</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.005069140589552728</v>
+      </c>
+      <c r="C35">
+        <v>-0.04053768161320341</v>
+      </c>
+      <c r="D35">
+        <v>0.01725214113693794</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.003482511046937323</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.0009866301493108771</v>
+      </c>
+      <c r="C36">
+        <v>-0.02499136489894819</v>
+      </c>
+      <c r="D36">
+        <v>0.02082813158645642</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.002271982377712159</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009393071259994366</v>
+      </c>
+      <c r="C38">
+        <v>-0.03393321051132241</v>
+      </c>
+      <c r="D38">
+        <v>0.0167286296324541</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01139066770681683</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0003879730564127684</v>
+      </c>
+      <c r="C39">
+        <v>-0.1157609584660735</v>
+      </c>
+      <c r="D39">
+        <v>0.07504024457309411</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.009429296396838942</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002762521264102069</v>
+      </c>
+      <c r="C40">
+        <v>-0.09004315736519188</v>
+      </c>
+      <c r="D40">
+        <v>0.0132690109157922</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0001896390170183458</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007339583190294817</v>
+      </c>
+      <c r="C41">
+        <v>-0.03820651126043782</v>
+      </c>
+      <c r="D41">
+        <v>0.03723564382973346</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.002938322656205445</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.004135941413289021</v>
+      </c>
+      <c r="C43">
+        <v>-0.05359068012814285</v>
+      </c>
+      <c r="D43">
+        <v>0.02491991229468856</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.004540241022781707</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003433034745994636</v>
+      </c>
+      <c r="C44">
+        <v>-0.1092545028257265</v>
+      </c>
+      <c r="D44">
+        <v>0.06781974896152543</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.00110762203914593</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002263131317862473</v>
+      </c>
+      <c r="C46">
+        <v>-0.03309440459486166</v>
+      </c>
+      <c r="D46">
+        <v>0.03510545028900307</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-4.399698731407772e-05</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002824636797430013</v>
+      </c>
+      <c r="C47">
+        <v>-0.03751849061162257</v>
+      </c>
+      <c r="D47">
+        <v>0.02228342440351996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.003964722849002902</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006844352330705902</v>
+      </c>
+      <c r="C48">
+        <v>-0.03124720925697991</v>
+      </c>
+      <c r="D48">
+        <v>0.03267670607982766</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01118265586798008</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01567408771079639</v>
+      </c>
+      <c r="C49">
+        <v>-0.1849835722197618</v>
+      </c>
+      <c r="D49">
+        <v>0.01506753600604647</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.001348238846548214</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003655830968094516</v>
+      </c>
+      <c r="C50">
+        <v>-0.04340250167990534</v>
+      </c>
+      <c r="D50">
+        <v>0.03597133915826091</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.000931346026393996</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004431984130109864</v>
+      </c>
+      <c r="C51">
+        <v>-0.02610229310197578</v>
+      </c>
+      <c r="D51">
+        <v>0.02089251173887494</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>-0.001505627299714242</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02112186116039953</v>
+      </c>
+      <c r="C53">
+        <v>-0.1696696462406201</v>
+      </c>
+      <c r="D53">
+        <v>0.02588456369308115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.001397764280121022</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008886702123346878</v>
+      </c>
+      <c r="C54">
+        <v>-0.05405341065677415</v>
+      </c>
+      <c r="D54">
+        <v>0.04465469729569702</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.00326905507381354</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.00972409930801252</v>
+      </c>
+      <c r="C55">
+        <v>-0.1094880408643405</v>
+      </c>
+      <c r="D55">
+        <v>0.03837176967953364</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.003203721409021152</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.02046435665239757</v>
+      </c>
+      <c r="C56">
+        <v>-0.1745962288943099</v>
+      </c>
+      <c r="D56">
+        <v>0.01838561750139705</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.00696354253581191</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01940559574791538</v>
+      </c>
+      <c r="C58">
+        <v>-0.109885942125754</v>
+      </c>
+      <c r="D58">
+        <v>0.06114699628159409</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.006216810929556151</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009754232163948303</v>
+      </c>
+      <c r="C59">
+        <v>-0.1651564141869632</v>
+      </c>
+      <c r="D59">
+        <v>-0.3280381008159025</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.003492152522703601</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.0244325678799928</v>
+      </c>
+      <c r="C60">
+        <v>-0.2228221876836665</v>
+      </c>
+      <c r="D60">
+        <v>0.03407013975525914</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01362885020244059</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001648105644987276</v>
+      </c>
+      <c r="C61">
+        <v>-0.09451197214414252</v>
+      </c>
+      <c r="D61">
+        <v>0.05473655421044059</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1621230028055275</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.145351469072999</v>
+      </c>
+      <c r="C62">
+        <v>-0.09509305204643748</v>
+      </c>
+      <c r="D62">
+        <v>0.03829201215925639</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.0004279320624181552</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006393010120437408</v>
+      </c>
+      <c r="C63">
+        <v>-0.05488710606592369</v>
+      </c>
+      <c r="D63">
+        <v>0.02668095179952607</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.0003527039575103635</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.015581258174239</v>
+      </c>
+      <c r="C64">
+        <v>-0.1056443419275342</v>
+      </c>
+      <c r="D64">
+        <v>0.05749831946947045</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.003401224651670695</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01821697646617164</v>
+      </c>
+      <c r="C65">
+        <v>-0.1248255084774514</v>
+      </c>
+      <c r="D65">
+        <v>0.02474761373494119</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.006852193605449856</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01323777679305185</v>
+      </c>
+      <c r="C66">
+        <v>-0.1596292665121865</v>
+      </c>
+      <c r="D66">
+        <v>0.1103927876858373</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.003760267378636298</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01564083710416427</v>
+      </c>
+      <c r="C67">
+        <v>-0.06519152912617909</v>
+      </c>
+      <c r="D67">
+        <v>0.02694817276037899</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.005434391530486965</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0005646161633650798</v>
+      </c>
+      <c r="C68">
+        <v>-0.08690959977453752</v>
+      </c>
+      <c r="D68">
+        <v>-0.2611245246008828</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.001498868718425237</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006420443225164835</v>
+      </c>
+      <c r="C69">
+        <v>-0.05050187426121708</v>
+      </c>
+      <c r="D69">
+        <v>0.03783475904112599</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.0002559754908032638</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001816521457668254</v>
+      </c>
+      <c r="C70">
+        <v>-0.002703265700828625</v>
+      </c>
+      <c r="D70">
+        <v>0.0003170292718020913</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-9.397158667706767e-05</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005571190391027291</v>
+      </c>
+      <c r="C71">
+        <v>-0.09426682429751636</v>
+      </c>
+      <c r="D71">
+        <v>-0.3059889358054129</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.003330027020621126</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01644481366137083</v>
+      </c>
+      <c r="C72">
+        <v>-0.1533536691752328</v>
+      </c>
+      <c r="D72">
+        <v>0.01684375676902313</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01053044003485821</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03126018615999891</v>
+      </c>
+      <c r="C73">
+        <v>-0.2794103518513399</v>
+      </c>
+      <c r="D73">
+        <v>0.05667008357659457</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.004691465819648563</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.002143793417029697</v>
+      </c>
+      <c r="C74">
+        <v>-0.1046853145688432</v>
+      </c>
+      <c r="D74">
+        <v>0.03551103992048164</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.002229047389857146</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01121002556841209</v>
+      </c>
+      <c r="C75">
+        <v>-0.1250050857171253</v>
+      </c>
+      <c r="D75">
+        <v>0.02461432124749707</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.009055326020297499</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02196737646330656</v>
+      </c>
+      <c r="C76">
+        <v>-0.1490851993402678</v>
+      </c>
+      <c r="D76">
+        <v>0.05694170463680581</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.00203687772226188</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02392700090613297</v>
+      </c>
+      <c r="C77">
+        <v>-0.1207803916649024</v>
+      </c>
+      <c r="D77">
+        <v>0.08553789235719592</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.0008844821023173713</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01497781941319614</v>
+      </c>
+      <c r="C78">
+        <v>-0.09592877980238054</v>
+      </c>
+      <c r="D78">
+        <v>0.07157882850466372</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02388058002753298</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03812288157313357</v>
+      </c>
+      <c r="C79">
+        <v>-0.1571561635121861</v>
+      </c>
+      <c r="D79">
+        <v>0.03094535149664777</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.006707903811991356</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01027948840357729</v>
+      </c>
+      <c r="C80">
+        <v>-0.03970570646861051</v>
+      </c>
+      <c r="D80">
+        <v>0.02856675276985244</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.001054829562130681</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01564829513776515</v>
+      </c>
+      <c r="C81">
+        <v>-0.1276585822312608</v>
+      </c>
+      <c r="D81">
+        <v>0.03870878705222753</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.005653575950073879</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.02002542287147805</v>
+      </c>
+      <c r="C82">
+        <v>-0.1416368079770432</v>
+      </c>
+      <c r="D82">
+        <v>0.03381611263960468</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.007652815035144305</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.01021082020928274</v>
+      </c>
+      <c r="C83">
+        <v>-0.05546916214243009</v>
+      </c>
+      <c r="D83">
+        <v>0.05391801817098491</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01300218254993357</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01145185325642231</v>
+      </c>
+      <c r="C84">
+        <v>-0.03654457180964083</v>
+      </c>
+      <c r="D84">
+        <v>-0.005932509278874342</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01393167791813889</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02875464095719948</v>
+      </c>
+      <c r="C85">
+        <v>-0.1253494080259418</v>
+      </c>
+      <c r="D85">
+        <v>0.04310297504881654</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.001175282664393546</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005772776045566315</v>
+      </c>
+      <c r="C86">
+        <v>-0.04949932389226871</v>
+      </c>
+      <c r="D86">
+        <v>0.02903659625308836</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.003080683756425178</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01039898482203327</v>
+      </c>
+      <c r="C87">
+        <v>-0.1278044603961248</v>
+      </c>
+      <c r="D87">
+        <v>0.07302951214060514</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01144568402792758</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002885739882012886</v>
+      </c>
+      <c r="C88">
+        <v>-0.0649720355743606</v>
+      </c>
+      <c r="D88">
+        <v>0.0183310624440447</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01256818188569279</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001264413727222304</v>
+      </c>
+      <c r="C89">
+        <v>-0.1466172915948074</v>
+      </c>
+      <c r="D89">
+        <v>-0.3319325547564677</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.0001278956494337196</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.006864684749165351</v>
+      </c>
+      <c r="C90">
+        <v>-0.1207788337548884</v>
+      </c>
+      <c r="D90">
+        <v>-0.3186795656207906</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.0008463583727210524</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01052947411791322</v>
+      </c>
+      <c r="C91">
+        <v>-0.1003530336453116</v>
+      </c>
+      <c r="D91">
+        <v>0.02041184834102407</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.008025769877042998</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.000943368832865994</v>
+      </c>
+      <c r="C92">
+        <v>-0.1357061594870439</v>
+      </c>
+      <c r="D92">
+        <v>-0.3254564130996732</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.0002381207303707488</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.004868712279254474</v>
+      </c>
+      <c r="C93">
+        <v>-0.1053160879454499</v>
+      </c>
+      <c r="D93">
+        <v>-0.3020606279599312</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.004111860635540717</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02285129506655271</v>
+      </c>
+      <c r="C94">
+        <v>-0.146860724115334</v>
+      </c>
+      <c r="D94">
+        <v>0.05275307209059268</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.004713596094677197</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01659368290733719</v>
+      </c>
+      <c r="C95">
+        <v>-0.1250756461165654</v>
+      </c>
+      <c r="D95">
+        <v>0.05785227407698858</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.001114902786802238</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03662653762524102</v>
+      </c>
+      <c r="C97">
+        <v>-0.2126951767992326</v>
+      </c>
+      <c r="D97">
+        <v>-0.005280464909758407</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.002283903478623556</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03699502759163641</v>
+      </c>
+      <c r="C98">
+        <v>-0.2493744778307062</v>
+      </c>
+      <c r="D98">
+        <v>0.05057105774001729</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9851381307272038</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9819373940267015</v>
+      </c>
+      <c r="C99">
+        <v>0.1183424997895125</v>
+      </c>
+      <c r="D99">
+        <v>-0.02702708721450058</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.00123217721808428</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003354545556566276</v>
+      </c>
+      <c r="C101">
+        <v>-0.05092102111827331</v>
+      </c>
+      <c r="D101">
+        <v>0.00869232564333198</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
